--- a/advanced_online/reports/order_master.xlsx
+++ b/advanced_online/reports/order_master.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="21075" windowHeight="7500"/>
+    <workbookView xWindow="360" yWindow="150" windowWidth="18840" windowHeight="7260"/>
   </bookViews>
   <sheets>
     <sheet name="field definitions" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -267,7 +268,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -755,7 +756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1103,7 +1104,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,4 +1697,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>